--- a/output.xlsx
+++ b/output.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,10 +391,10 @@
         <v>9.433999999999999</v>
       </c>
       <c r="C2">
-        <v>9.394</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="D2">
-        <v>9.337</v>
+        <v>9.377000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.749000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="C3">
-        <v>9.709</v>
+        <v>9.646000000000001</v>
       </c>
       <c r="D3">
-        <v>9.651999999999999</v>
+        <v>9.613</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.064</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="C4">
-        <v>10.024</v>
+        <v>9.882</v>
       </c>
       <c r="D4">
-        <v>9.968</v>
+        <v>9.849</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.379</v>
+        <v>10.142</v>
       </c>
       <c r="C5">
-        <v>10.339</v>
+        <v>10.118</v>
       </c>
       <c r="D5">
-        <v>10.283</v>
+        <v>10.086</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,83 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.694</v>
+        <v>10.379</v>
       </c>
       <c r="C6">
-        <v>10.654</v>
+        <v>10.354</v>
       </c>
       <c r="D6">
-        <v>10.598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>11.009</v>
-      </c>
-      <c r="C7">
-        <v>10.969</v>
-      </c>
-      <c r="D7">
-        <v>10.913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>11.324</v>
-      </c>
-      <c r="C8">
-        <v>11.284</v>
-      </c>
-      <c r="D8">
-        <v>11.228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>11.639</v>
-      </c>
-      <c r="C9">
-        <v>11.599</v>
-      </c>
-      <c r="D9">
-        <v>11.543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>11.954</v>
-      </c>
-      <c r="C10">
-        <v>11.914</v>
-      </c>
-      <c r="D10">
-        <v>11.858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>12.269</v>
-      </c>
-      <c r="C11">
-        <v>12.229</v>
-      </c>
-      <c r="D11">
-        <v>12.173</v>
+        <v>10.322</v>
       </c>
     </row>
   </sheetData>
